--- a/Digital twin energy system/_residence_objects.xlsx
+++ b/Digital twin energy system/_residence_objects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s124129\Documents\GitHub\Zero-energy-system-builder\Digital twin energy system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B9AE0B-172F-4036-8F25-BEC751838731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF07F564-E1BC-4513-BB96-A94BE4481774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="552" windowWidth="23256" windowHeight="12576" xr2:uid="{E67EF945-FA6C-4B2A-8B03-27E66B79A5F6}"/>
   </bookViews>
@@ -10204,7 +10204,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3364688D-5DC3-41DD-8C8E-B2881477A5D0}">
   <dimension ref="A1:T1496"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1467" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A1409" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="C1486" sqref="C1486"/>
     </sheetView>
   </sheetViews>
